--- a/Client2D/Bin/Excel/Character/Monster.xlsx
+++ b/Client2D/Bin/Excel/Character/Monster.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B85C27A-9C59-42AD-9B52-F62AF6C8A13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3475FD6F-5386-48EB-BEF8-038F6D2E96B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -446,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -542,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Client2D/Bin/Excel/Character/Monster.xlsx
+++ b/Client2D/Bin/Excel/Character/Monster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3475FD6F-5386-48EB-BEF8-038F6D2E96B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F647532-28B1-4999-B798-6C5B5C38F3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>타입</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>공격력</t>
+  </si>
+  <si>
+    <t>공격딜레이</t>
   </si>
   <si>
     <t>Bandana</t>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -446,103 +449,135 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>300</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19">
+      <c r="B22">
         <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
